--- a/biology/Médecine/Flubromazolam/Flubromazolam.xlsx
+++ b/biology/Médecine/Flubromazolam/Flubromazolam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le flubromazolam est un produit dérivé de benzodiazépine, de sous-type triazolobenzodiazépine, utilisé dans la recherche scientifique. Il diffère du triazolam de par un atome de fluor est attaché en position R2' et un atome de brome en position 7. C'est l'un des hypnotiques les plus puissants connus à ce jour. 
-Après avoir été longtemps ignoré, il revoit le jour durant les années 2010[2], en tant que nouveau produit de synthèse, dont le but était de proposer un produit non-répertorié aux effets identiques à ceux des produits disponibles sur ordonnance. Il fut par la suite indexé sur la liste des produits psychotropes. Ce profil fait de lui un « NPS » : « Nouveau produit de synthèse » (en anglais « Research Chemical »). 
+Après avoir été longtemps ignoré, il revoit le jour durant les années 2010, en tant que nouveau produit de synthèse, dont le but était de proposer un produit non-répertorié aux effets identiques à ceux des produits disponibles sur ordonnance. Il fut par la suite indexé sur la liste des produits psychotropes. Ce profil fait de lui un « NPS » : « Nouveau produit de synthèse » (en anglais « Research Chemical »). 
 Les effets sont considérés comme extrêmement sédatifs et hypnotiques, bien que de faibles doses permettent un effet anxiolytique.
-Sa demi-vie d'élimination est estimée entre 10 et 20 heures[3].
+Sa demi-vie d'élimination est estimée entre 10 et 20 heures.
 </t>
         </is>
       </c>
@@ -515,10 +527,12 @@
           <t>Effets</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le produit ne diffère que légèrement des autres hypnotiques en circulation. D'un point de vue pharmacocinétique, les premiers effets apparaissent 20 minutes après ingestion et le Tmax est atteint après 1 heure. 
-On estime qu'en dessous de 0,5 milligrammes, il produit une grande sédation et une amnésie antérograde. La plupart des usagers considèrent cette dose comme "standard/forte"[4],[5]. 1 mg est considéré comme une très haute dose, le sommeil est irrésistible. Ce dosage est déconseillé pour toute personne n'ayant pas de tolérance aux benzodiazépines[6].
+On estime qu'en dessous de 0,5 milligrammes, il produit une grande sédation et une amnésie antérograde. La plupart des usagers considèrent cette dose comme "standard/forte",. 1 mg est considéré comme une très haute dose, le sommeil est irrésistible. Ce dosage est déconseillé pour toute personne n'ayant pas de tolérance aux benzodiazépines.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Débouchés commerciaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le flubromazolam n'a jamais été commercialisé, du fait de son caractère récent et du manque d’études à son sujet. Il est aussi très proche du triazolam et par conséquent redondant.  
 </t>
